--- a/华沐轨道插座/CI130X_SDK_V1.5.9/projects/cwsl_track_socket/firmware/user_file/cmd_info/[60000]{cmd_info}.xlsx
+++ b/华沐轨道插座/CI130X_SDK_V1.5.9/projects/cwsl_track_socket/firmware/user_file/cmd_info/[60000]{cmd_info}.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9300"/>
+    <workbookView windowWidth="22368" windowHeight="9300" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="&lt;0&gt;cmd" sheetId="1" r:id="rId1"/>
@@ -1094,8 +1094,8 @@
   <sheetPr/>
   <dimension ref="A1:O14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E14"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1172,7 +1172,7 @@
         <v>1</v>
       </c>
       <c r="F2" s="2">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>17</v>
@@ -1213,7 +1213,7 @@
         <v>2</v>
       </c>
       <c r="F3" s="2">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>18</v>
@@ -1249,7 +1249,7 @@
         <v>3</v>
       </c>
       <c r="F4" s="2">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>18</v>
@@ -1285,7 +1285,7 @@
         <v>4</v>
       </c>
       <c r="F5" s="2">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>18</v>
@@ -1321,7 +1321,7 @@
         <v>5</v>
       </c>
       <c r="F6" s="2">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>18</v>
@@ -1357,7 +1357,7 @@
         <v>6</v>
       </c>
       <c r="F7" s="2">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>18</v>
@@ -1393,7 +1393,7 @@
         <v>2000</v>
       </c>
       <c r="F8" s="2">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>18</v>
@@ -1429,7 +1429,7 @@
         <v>2001</v>
       </c>
       <c r="F9" s="2">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>18</v>
@@ -1465,7 +1465,7 @@
         <v>2002</v>
       </c>
       <c r="F10" s="2">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>18</v>
@@ -1501,7 +1501,7 @@
         <v>2003</v>
       </c>
       <c r="F11" s="2">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>18</v>
@@ -1652,8 +1652,8 @@
   <sheetPr/>
   <dimension ref="A1:O5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="4"/>
@@ -1730,7 +1730,7 @@
         <v>33</v>
       </c>
       <c r="F2" s="2">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>17</v>
